--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Spp1-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Spp1-Itgav.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.110548</v>
+        <v>10.70913233333333</v>
       </c>
       <c r="H2">
-        <v>42.331644</v>
+        <v>32.127397</v>
       </c>
       <c r="I2">
-        <v>0.001427319132920652</v>
+        <v>0.007451729107954897</v>
       </c>
       <c r="J2">
-        <v>0.001427319132920652</v>
+        <v>0.007451729107954897</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N2">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O2">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P2">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q2">
-        <v>259.386824067396</v>
+        <v>240.9063332917224</v>
       </c>
       <c r="R2">
-        <v>2334.481416606564</v>
+        <v>2168.156999625501</v>
       </c>
       <c r="S2">
-        <v>9.106522411474359E-05</v>
+        <v>0.0006179231113804519</v>
       </c>
       <c r="T2">
-        <v>9.106522411474361E-05</v>
+        <v>0.0006179231113804519</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.110548</v>
+        <v>10.70913233333333</v>
       </c>
       <c r="H3">
-        <v>42.331644</v>
+        <v>32.127397</v>
       </c>
       <c r="I3">
-        <v>0.001427319132920652</v>
+        <v>0.007451729107954897</v>
       </c>
       <c r="J3">
-        <v>0.001427319132920652</v>
+        <v>0.007451729107954897</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N3">
         <v>247.930015</v>
       </c>
       <c r="O3">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P3">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q3">
-        <v>1166.14279243274</v>
+        <v>885.0384466801061</v>
       </c>
       <c r="R3">
-        <v>10495.28513189466</v>
+        <v>7965.346020120955</v>
       </c>
       <c r="S3">
-        <v>0.0004094080534911361</v>
+        <v>0.002270117614557062</v>
       </c>
       <c r="T3">
-        <v>0.0004094080534911362</v>
+        <v>0.002270117614557062</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.110548</v>
+        <v>10.70913233333333</v>
       </c>
       <c r="H4">
-        <v>42.331644</v>
+        <v>32.127397</v>
       </c>
       <c r="I4">
-        <v>0.001427319132920652</v>
+        <v>0.007451729107954897</v>
       </c>
       <c r="J4">
-        <v>0.001427319132920652</v>
+        <v>0.007451729107954897</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N4">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O4">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P4">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q4">
-        <v>1287.60156851284</v>
+        <v>849.5133275676017</v>
       </c>
       <c r="R4">
-        <v>11588.41411661556</v>
+        <v>7645.619948108415</v>
       </c>
       <c r="S4">
-        <v>0.0004520496591478787</v>
+        <v>0.002178995924918552</v>
       </c>
       <c r="T4">
-        <v>0.0004520496591478789</v>
+        <v>0.002178995924918552</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.110548</v>
+        <v>10.70913233333333</v>
       </c>
       <c r="H5">
-        <v>42.331644</v>
+        <v>32.127397</v>
       </c>
       <c r="I5">
-        <v>0.001427319132920652</v>
+        <v>0.007451729107954897</v>
       </c>
       <c r="J5">
-        <v>0.001427319132920652</v>
+        <v>0.007451729107954897</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N5">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O5">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P5">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q5">
-        <v>205.367309681644</v>
+        <v>154.930773764036</v>
       </c>
       <c r="R5">
-        <v>1848.305787134796</v>
+        <v>1394.376963876324</v>
       </c>
       <c r="S5">
-        <v>7.210011591468347E-05</v>
+        <v>0.0003973963841661423</v>
       </c>
       <c r="T5">
-        <v>7.210011591468348E-05</v>
+        <v>0.0003973963841661423</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.110548</v>
+        <v>10.70913233333333</v>
       </c>
       <c r="H6">
-        <v>42.331644</v>
+        <v>32.127397</v>
       </c>
       <c r="I6">
-        <v>0.001427319132920652</v>
+        <v>0.007451729107954897</v>
       </c>
       <c r="J6">
-        <v>0.001427319132920652</v>
+        <v>0.007451729107954897</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N6">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O6">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P6">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q6">
-        <v>1147.024655530372</v>
+        <v>774.7763455969656</v>
       </c>
       <c r="R6">
-        <v>10323.22189977335</v>
+        <v>6972.987110372691</v>
       </c>
       <c r="S6">
-        <v>0.0004026960802522096</v>
+        <v>0.001987296072932688</v>
       </c>
       <c r="T6">
-        <v>0.0004026960802522097</v>
+        <v>0.001987296072932689</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>141.883735</v>
       </c>
       <c r="I7">
-        <v>0.004783971291446737</v>
+        <v>0.03290895798513831</v>
       </c>
       <c r="J7">
-        <v>0.004783971291446737</v>
+        <v>0.03290895798513832</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N7">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O7">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P7">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q7">
-        <v>869.3914984371984</v>
+        <v>1063.910977680028</v>
       </c>
       <c r="R7">
-        <v>7824.523485934786</v>
+        <v>9575.198799120255</v>
       </c>
       <c r="S7">
-        <v>0.0003052249547882405</v>
+        <v>0.002728924443691454</v>
       </c>
       <c r="T7">
-        <v>0.0003052249547882405</v>
+        <v>0.002728924443691455</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>141.883735</v>
       </c>
       <c r="I8">
-        <v>0.004783971291446737</v>
+        <v>0.03290895798513831</v>
       </c>
       <c r="J8">
-        <v>0.004783971291446737</v>
+        <v>0.03290895798513832</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N8">
         <v>247.930015</v>
       </c>
       <c r="O8">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P8">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q8">
-        <v>3908.581838534003</v>
+        <v>3908.581838534002</v>
       </c>
       <c r="R8">
         <v>35177.23654680602</v>
       </c>
       <c r="S8">
-        <v>0.001372220359984181</v>
+        <v>0.01002548591293114</v>
       </c>
       <c r="T8">
-        <v>0.001372220359984181</v>
+        <v>0.01002548591293114</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>141.883735</v>
       </c>
       <c r="I9">
-        <v>0.004783971291446737</v>
+        <v>0.03290895798513831</v>
       </c>
       <c r="J9">
-        <v>0.004783971291446737</v>
+        <v>0.03290895798513832</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N9">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O9">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P9">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q9">
-        <v>4315.677409846406</v>
+        <v>3751.692795017591</v>
       </c>
       <c r="R9">
-        <v>38841.09668861765</v>
+        <v>33765.23515515832</v>
       </c>
       <c r="S9">
-        <v>0.001515142999061835</v>
+        <v>0.009623066580128592</v>
       </c>
       <c r="T9">
-        <v>0.001515142999061836</v>
+        <v>0.009623066580128596</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>141.883735</v>
       </c>
       <c r="I10">
-        <v>0.004783971291446737</v>
+        <v>0.03290895798513831</v>
       </c>
       <c r="J10">
-        <v>0.004783971291446737</v>
+        <v>0.03290895798513832</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N10">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O10">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P10">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q10">
-        <v>688.3333173767904</v>
+        <v>684.2184210591799</v>
       </c>
       <c r="R10">
-        <v>6194.999856391114</v>
+        <v>6157.96578953262</v>
       </c>
       <c r="S10">
-        <v>0.0002416592594397759</v>
+        <v>0.001755015610539102</v>
       </c>
       <c r="T10">
-        <v>0.0002416592594397759</v>
+        <v>0.001755015610539103</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>141.883735</v>
       </c>
       <c r="I11">
-        <v>0.004783971291446737</v>
+        <v>0.03290895798513831</v>
       </c>
       <c r="J11">
-        <v>0.004783971291446737</v>
+        <v>0.03290895798513832</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N11">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O11">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P11">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q11">
-        <v>3844.50323412286</v>
+        <v>3421.632997623439</v>
       </c>
       <c r="R11">
-        <v>34600.52910710574</v>
+        <v>30794.69697861095</v>
       </c>
       <c r="S11">
-        <v>0.001349723718172704</v>
+        <v>0.008776465437848021</v>
       </c>
       <c r="T11">
-        <v>0.001349723718172705</v>
+        <v>0.008776465437848024</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7027.984863333334</v>
+        <v>411.37678</v>
       </c>
       <c r="H12">
-        <v>21083.95459</v>
+        <v>1234.13034</v>
       </c>
       <c r="I12">
-        <v>0.7108991983381793</v>
+        <v>0.2862480573072345</v>
       </c>
       <c r="J12">
-        <v>0.7108991983381793</v>
+        <v>0.2862480573072345</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N12">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O12">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P12">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q12">
-        <v>129191.7701065732</v>
+        <v>9254.089741956581</v>
       </c>
       <c r="R12">
-        <v>1162725.930959158</v>
+        <v>83286.80767760922</v>
       </c>
       <c r="S12">
-        <v>0.04535649619380309</v>
+        <v>0.02373667743894144</v>
       </c>
       <c r="T12">
-        <v>0.04535649619380309</v>
+        <v>0.02373667743894144</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7027.984863333334</v>
+        <v>411.37678</v>
       </c>
       <c r="H13">
-        <v>21083.95459</v>
+        <v>1234.13034</v>
       </c>
       <c r="I13">
-        <v>0.7108991983381793</v>
+        <v>0.2862480573072345</v>
       </c>
       <c r="J13">
-        <v>0.7108991983381793</v>
+        <v>0.2862480573072345</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N13">
         <v>247.930015</v>
       </c>
       <c r="O13">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P13">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q13">
-        <v>580816.1308620021</v>
+        <v>33997.55041201723</v>
       </c>
       <c r="R13">
-        <v>5227345.177758019</v>
+        <v>305977.953708155</v>
       </c>
       <c r="S13">
-        <v>0.2039122508114121</v>
+        <v>0.08720348627974112</v>
       </c>
       <c r="T13">
-        <v>0.2039122508114121</v>
+        <v>0.08720348627974112</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7027.984863333334</v>
+        <v>411.37678</v>
       </c>
       <c r="H14">
-        <v>21083.95459</v>
+        <v>1234.13034</v>
       </c>
       <c r="I14">
-        <v>0.7108991983381793</v>
+        <v>0.2862480573072345</v>
       </c>
       <c r="J14">
-        <v>0.7108991983381793</v>
+        <v>0.2862480573072345</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N14">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O14">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P14">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q14">
-        <v>641310.6233374139</v>
+        <v>32632.9011897707</v>
       </c>
       <c r="R14">
-        <v>5771795.610036724</v>
+        <v>293696.1107079362</v>
       </c>
       <c r="S14">
-        <v>0.2251505867785067</v>
+        <v>0.08370317027795145</v>
       </c>
       <c r="T14">
-        <v>0.2251505867785068</v>
+        <v>0.08370317027795145</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7027.984863333334</v>
+        <v>411.37678</v>
       </c>
       <c r="H15">
-        <v>21083.95459</v>
+        <v>1234.13034</v>
       </c>
       <c r="I15">
-        <v>0.7108991983381793</v>
+        <v>0.2862480573072345</v>
       </c>
       <c r="J15">
-        <v>0.7108991983381793</v>
+        <v>0.2862480573072345</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N15">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O15">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P15">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q15">
-        <v>102286.4841157185</v>
+        <v>5951.45534205192</v>
       </c>
       <c r="R15">
-        <v>920578.3570414662</v>
+        <v>53563.09807846727</v>
       </c>
       <c r="S15">
-        <v>0.03591061972171274</v>
+        <v>0.01526544259734867</v>
       </c>
       <c r="T15">
-        <v>0.03591061972171274</v>
+        <v>0.01526544259734867</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7027.984863333334</v>
+        <v>411.37678</v>
       </c>
       <c r="H16">
-        <v>21083.95459</v>
+        <v>1234.13034</v>
       </c>
       <c r="I16">
-        <v>0.7108991983381793</v>
+        <v>0.2862480573072345</v>
       </c>
       <c r="J16">
-        <v>0.7108991983381793</v>
+        <v>0.2862480573072345</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N16">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O16">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P16">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q16">
-        <v>571294.0359890761</v>
+        <v>29761.98148936687</v>
       </c>
       <c r="R16">
-        <v>5141646.323901685</v>
+        <v>267857.8334043018</v>
       </c>
       <c r="S16">
-        <v>0.2005692448327446</v>
+        <v>0.0763392807132518</v>
       </c>
       <c r="T16">
-        <v>0.2005692448327447</v>
+        <v>0.07633928071325181</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>118.3857016666667</v>
+        <v>173.2560603333334</v>
       </c>
       <c r="H17">
-        <v>355.157105</v>
+        <v>519.768181</v>
       </c>
       <c r="I17">
-        <v>0.01197502584967427</v>
+        <v>0.12055666021578</v>
       </c>
       <c r="J17">
-        <v>0.01197502584967427</v>
+        <v>0.12055666021578</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N17">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O17">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P17">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q17">
-        <v>2176.222438016362</v>
+        <v>3897.466285439131</v>
       </c>
       <c r="R17">
-        <v>19586.00194214726</v>
+        <v>35077.19656895217</v>
       </c>
       <c r="S17">
-        <v>0.0007640256391357852</v>
+        <v>0.009996974594613994</v>
       </c>
       <c r="T17">
-        <v>0.0007640256391357853</v>
+        <v>0.009996974594613996</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>118.3857016666667</v>
+        <v>173.2560603333334</v>
       </c>
       <c r="H18">
-        <v>355.157105</v>
+        <v>519.768181</v>
       </c>
       <c r="I18">
-        <v>0.01197502584967427</v>
+        <v>0.12055666021578</v>
       </c>
       <c r="J18">
-        <v>0.01197502584967427</v>
+        <v>0.12055666021578</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N18">
         <v>247.930015</v>
       </c>
       <c r="O18">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P18">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q18">
-        <v>9783.789596667397</v>
+        <v>14318.45921242808</v>
       </c>
       <c r="R18">
-        <v>88054.10637000657</v>
+        <v>128866.1329118527</v>
       </c>
       <c r="S18">
-        <v>0.003434881457511951</v>
+        <v>0.0367267507907467</v>
       </c>
       <c r="T18">
-        <v>0.003434881457511952</v>
+        <v>0.03672675079074671</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>118.3857016666667</v>
+        <v>173.2560603333334</v>
       </c>
       <c r="H19">
-        <v>355.157105</v>
+        <v>519.768181</v>
       </c>
       <c r="I19">
-        <v>0.01197502584967427</v>
+        <v>0.12055666021578</v>
       </c>
       <c r="J19">
-        <v>0.01197502584967427</v>
+        <v>0.12055666021578</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N19">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O19">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P19">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q19">
-        <v>10802.81326816599</v>
+        <v>13743.72150364592</v>
       </c>
       <c r="R19">
-        <v>97225.31941349395</v>
+        <v>123693.4935328133</v>
       </c>
       <c r="S19">
-        <v>0.003792639101358723</v>
+        <v>0.03525255246484264</v>
       </c>
       <c r="T19">
-        <v>0.003792639101358724</v>
+        <v>0.03525255246484264</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>118.3857016666667</v>
+        <v>173.2560603333334</v>
       </c>
       <c r="H20">
-        <v>355.157105</v>
+        <v>519.768181</v>
       </c>
       <c r="I20">
-        <v>0.01197502584967427</v>
+        <v>0.12055666021578</v>
       </c>
       <c r="J20">
-        <v>0.01197502584967427</v>
+        <v>0.12055666021578</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N20">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O20">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P20">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q20">
-        <v>1723.005588164049</v>
+        <v>2506.523838836228</v>
       </c>
       <c r="R20">
-        <v>15507.05029347644</v>
+        <v>22558.71454952605</v>
       </c>
       <c r="S20">
-        <v>0.0006049107953006363</v>
+        <v>0.006429216650636619</v>
       </c>
       <c r="T20">
-        <v>0.0006049107953006364</v>
+        <v>0.00642921665063662</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>118.3857016666667</v>
+        <v>173.2560603333334</v>
       </c>
       <c r="H21">
-        <v>355.157105</v>
+        <v>519.768181</v>
       </c>
       <c r="I21">
-        <v>0.01197502584967427</v>
+        <v>0.12055666021578</v>
       </c>
       <c r="J21">
-        <v>0.01197502584967427</v>
+        <v>0.12055666021578</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N21">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O21">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P21">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q21">
-        <v>9623.390861498059</v>
+        <v>12534.60066599115</v>
       </c>
       <c r="R21">
-        <v>86610.51775348253</v>
+        <v>112811.4059939204</v>
       </c>
       <c r="S21">
-        <v>0.003378568856367176</v>
+        <v>0.03215116571494002</v>
       </c>
       <c r="T21">
-        <v>0.003378568856367177</v>
+        <v>0.03215116571494003</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2678.274088666667</v>
+        <v>794.4973246666667</v>
       </c>
       <c r="H22">
-        <v>8034.822266</v>
+        <v>2383.491974</v>
       </c>
       <c r="I22">
-        <v>0.2709144853877791</v>
+        <v>0.5528345953838922</v>
       </c>
       <c r="J22">
-        <v>0.2709144853877791</v>
+        <v>0.5528345953838923</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N22">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O22">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P22">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q22">
-        <v>49233.31183461096</v>
+        <v>17872.54385677711</v>
       </c>
       <c r="R22">
-        <v>443099.8065114987</v>
+        <v>160852.8947109939</v>
       </c>
       <c r="S22">
-        <v>0.01728477378236059</v>
+        <v>0.04584295380433139</v>
       </c>
       <c r="T22">
-        <v>0.01728477378236059</v>
+        <v>0.0458429538043314</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2678.274088666667</v>
+        <v>794.4973246666667</v>
       </c>
       <c r="H23">
-        <v>8034.822266</v>
+        <v>2383.491974</v>
       </c>
       <c r="I23">
-        <v>0.2709144853877791</v>
+        <v>0.5528345953838922</v>
       </c>
       <c r="J23">
-        <v>0.2709144853877791</v>
+        <v>0.5528345953838923</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1860,28 +1860,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N23">
         <v>247.930015</v>
       </c>
       <c r="O23">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P23">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q23">
-        <v>221341.5116590793</v>
+        <v>65659.9112073555</v>
       </c>
       <c r="R23">
-        <v>1992073.604931714</v>
+        <v>590939.2008661996</v>
       </c>
       <c r="S23">
-        <v>0.07770832014155415</v>
+        <v>0.1684172270269136</v>
       </c>
       <c r="T23">
-        <v>0.07770832014155415</v>
+        <v>0.1684172270269136</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2678.274088666667</v>
+        <v>794.4973246666667</v>
       </c>
       <c r="H24">
-        <v>8034.822266</v>
+        <v>2383.491974</v>
       </c>
       <c r="I24">
-        <v>0.2709144853877791</v>
+        <v>0.5528345953838922</v>
       </c>
       <c r="J24">
-        <v>0.2709144853877791</v>
+        <v>0.5528345953838923</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N24">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O24">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P24">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q24">
-        <v>244395.1799373417</v>
+        <v>63024.34641883409</v>
       </c>
       <c r="R24">
-        <v>2199556.619436075</v>
+        <v>567219.1177695069</v>
       </c>
       <c r="S24">
-        <v>0.08580197515265617</v>
+        <v>0.161657021215322</v>
       </c>
       <c r="T24">
-        <v>0.08580197515265618</v>
+        <v>0.1616570212153221</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2678.274088666667</v>
+        <v>794.4973246666667</v>
       </c>
       <c r="H25">
-        <v>8034.822266</v>
+        <v>2383.491974</v>
       </c>
       <c r="I25">
-        <v>0.2709144853877791</v>
+        <v>0.5528345953838922</v>
       </c>
       <c r="J25">
-        <v>0.2709144853877791</v>
+        <v>0.5528345953838923</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N25">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O25">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P25">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q25">
-        <v>38980.0555002917</v>
+        <v>11494.12309351391</v>
       </c>
       <c r="R25">
-        <v>350820.4995026253</v>
+        <v>103447.1078416252</v>
       </c>
       <c r="S25">
-        <v>0.01368507248932925</v>
+        <v>0.0294823477966989</v>
       </c>
       <c r="T25">
-        <v>0.01368507248932925</v>
+        <v>0.0294823477966989</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2678.274088666667</v>
+        <v>794.4973246666667</v>
       </c>
       <c r="H26">
-        <v>8034.822266</v>
+        <v>2383.491974</v>
       </c>
       <c r="I26">
-        <v>0.2709144853877791</v>
+        <v>0.5528345953838922</v>
       </c>
       <c r="J26">
-        <v>0.2709144853877791</v>
+        <v>0.5528345953838923</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N26">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O26">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P26">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q26">
-        <v>217712.7645197624</v>
+        <v>57479.70186863933</v>
       </c>
       <c r="R26">
-        <v>1959414.880677862</v>
+        <v>517317.316817754</v>
       </c>
       <c r="S26">
-        <v>0.0764343438218789</v>
+        <v>0.1474350455406263</v>
       </c>
       <c r="T26">
-        <v>0.07643434382187891</v>
+        <v>0.1474350455406264</v>
       </c>
     </row>
   </sheetData>
